--- a/SystemMailTracking/Files/SystemEmails_Prod.xlsx
+++ b/SystemMailTracking/Files/SystemEmails_Prod.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9F01DD2B-B2E2-41BB-A4F9-79A052CCD0E6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11964" windowHeight="4104" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11964" windowHeight="4104" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="82">
   <si>
     <t>TCID</t>
   </si>
@@ -204,14 +205,71 @@
     <t>Data saved successfully.</t>
   </si>
   <si>
-    <t>autocontact250@mailinator.com</t>
+    <t>BroadCastEmail</t>
+  </si>
+  <si>
+    <t>deletecontactTest</t>
+  </si>
+  <si>
+    <t>GmailUrl</t>
+  </si>
+  <si>
+    <t>Search the contact and delete it</t>
+  </si>
+  <si>
+    <t>deletecontact</t>
+  </si>
+  <si>
+    <t>VerifyBroadcastMail</t>
+  </si>
+  <si>
+    <t>VerifyBroadcastEmailFromInbox</t>
+  </si>
+  <si>
+    <t>automationcontact1@mailinator.com</t>
+  </si>
+  <si>
+    <t>xponoacc@gmail.com</t>
+  </si>
+  <si>
+    <t>GmailPassword</t>
+  </si>
+  <si>
+    <t>password@12</t>
+  </si>
+  <si>
+    <t>BroadcastEmailAddress</t>
+  </si>
+  <si>
+    <t>BroadCastEmailSubject</t>
+  </si>
+  <si>
+    <t>BroadCastEmailContent</t>
+  </si>
+  <si>
+    <t>BroadCastEmailTextContent</t>
+  </si>
+  <si>
+    <t>SentEmailFrom</t>
+  </si>
+  <si>
+    <t>Test Automation Subject</t>
+  </si>
+  <si>
+    <t>Test Automation Content</t>
+  </si>
+  <si>
+    <t>Test Content Automation</t>
+  </si>
+  <si>
+    <t>Rfsupporttest@mailinator.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,8 +292,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +333,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,18 +391,15 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -343,6 +416,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -404,7 +486,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,9 +518,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -470,6 +570,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -645,20 +763,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,27 +784,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -696,14 +830,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
@@ -712,7 +846,7 @@
     <col min="5" max="5" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,323 +863,492 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" s="11" customFormat="1">
-      <c r="A4" s="12" t="s">
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5" ht="28.8">
-      <c r="A5" s="12" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" s="4" customFormat="1">
-      <c r="A6" s="12" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="43.2">
-      <c r="A8" s="12" t="s">
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" s="11" customFormat="1">
-      <c r="A12" s="3" t="s">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="28.8">
-      <c r="A13" s="3" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" s="11" customFormat="1" ht="43.2">
-      <c r="A16" s="3" t="s">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" s="11" customFormat="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="19" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="19"/>
-    </row>
-    <row r="20" spans="1:5" s="11" customFormat="1">
-      <c r="A20" s="19" t="s">
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-    </row>
-    <row r="21" spans="1:5" ht="28.8">
-      <c r="A21" s="19" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="19" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19" t="s">
+      <c r="D22" s="16"/>
+      <c r="E22" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="19"/>
-    </row>
-    <row r="24" spans="1:5" ht="28.8">
-      <c r="A24" s="19" t="s">
+      <c r="D23" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="20"/>
+    </row>
+    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1054,22 +1357,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" customWidth="1"/>
     <col min="4" max="4" width="33.21875" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.5546875" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
     <col min="15" max="15" width="32.77734375" customWidth="1"/>
@@ -1077,201 +1380,329 @@
     <col min="17" max="17" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="11" customFormat="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="11" customFormat="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="18"/>
-    </row>
-    <row r="3" spans="1:17" s="11" customFormat="1">
-      <c r="A3" s="11" t="s">
+      <c r="Q2" s="15"/>
+    </row>
+    <row r="3" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="8" t="s">
         <v>33</v>
       </c>
       <c r="O3" t="s">
         <v>61</v>
       </c>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="17"/>
-    </row>
-    <row r="4" spans="1:17" s="11" customFormat="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="Q4" s="17"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="7" t="s">
+      <c r="P3" s="12"/>
+      <c r="Q3" s="14"/>
+    </row>
+    <row r="4" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="Q4" s="14"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="24" customHeight="1">
+    <row r="7" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="5" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="28.8" customHeight="1">
-      <c r="A11" s="11" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="C19" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="C11" r:id="rId3"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{41AEDECE-D084-4B81-9333-11A959D29D76}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{401F4866-FA46-41A4-B14C-9CB6F53E91FA}"/>
+    <hyperlink ref="F11" r:id="rId3" xr:uid="{DB0AA7E2-1CA4-4AAA-A9C9-8FF10B5F4826}"/>
+    <hyperlink ref="G15" r:id="rId4" xr:uid="{AA1DA99F-964B-4771-AB49-6364776623F7}"/>
+    <hyperlink ref="C15" r:id="rId5" xr:uid="{BDC41AA5-CE49-4CAC-B5EF-340D1E748FD2}"/>
+    <hyperlink ref="H15" r:id="rId6" xr:uid="{B704C384-D0EF-4FA2-A81C-35EC1FBAA772}"/>
+    <hyperlink ref="C19" r:id="rId7" xr:uid="{238123BE-6BCE-445F-AF48-3DAA58DAF9A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>